--- a/Config/Excels/dialogconfig.xlsx
+++ b/Config/Excels/dialogconfig.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dialogconfig" sheetId="1" r:id="rId1"/>
-    <sheet name="!READ ME" sheetId="2" r:id="rId2"/>
+    <sheet name="branch@dialogconfig" sheetId="4" r:id="rId2"/>
+    <sheet name="!READ ME" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -59,10 +60,55 @@
     <t>triggerParam#string</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>豆腐干士大夫</t>
+  </si>
+  <si>
+    <t>dfsgg</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>豆腐干豆腐干</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>jhgjikl</t>
+  </si>
+  <si>
+    <t>是顶顶顶顶顶</t>
+  </si>
+  <si>
+    <t>35乳房个人</t>
+  </si>
+  <si>
+    <t>第三方</t>
+  </si>
+  <si>
+    <t>给合法合规</t>
+  </si>
+  <si>
+    <t>master id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>master#id[]</t>
+  </si>
+  <si>
+    <t>description#string</t>
+  </si>
+  <si>
+    <t>a.进入A</t>
+  </si>
+  <si>
+    <t>b.进入B</t>
+  </si>
+  <si>
+    <t>超级玛丽</t>
   </si>
 </sst>
 </file>
@@ -70,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,37 +131,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,45 +235,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -186,6 +252,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -194,28 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,13 +282,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,31 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,25 +420,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,102 +463,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +473,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +496,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,15 +544,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
@@ -492,6 +555,15 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,26 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,13 +605,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,120 +620,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1104,8 +1159,8 @@
       <c r="C3">
         <v>100001</v>
       </c>
-      <c r="D3">
-        <v>111</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1124,8 +1179,8 @@
       <c r="C4">
         <v>100002</v>
       </c>
-      <c r="D4">
-        <v>222</v>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1144,8 +1199,8 @@
       <c r="C5">
         <v>100001</v>
       </c>
-      <c r="D5">
-        <v>333</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1184,8 +1239,8 @@
       <c r="C7">
         <v>100001</v>
       </c>
-      <c r="D7">
-        <v>555</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1204,8 +1259,8 @@
       <c r="C8">
         <v>100002</v>
       </c>
-      <c r="D8">
-        <v>666</v>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1224,8 +1279,8 @@
       <c r="C9">
         <v>100001</v>
       </c>
-      <c r="D9">
-        <v>777</v>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1244,8 +1299,8 @@
       <c r="C10">
         <v>100002</v>
       </c>
-      <c r="D10">
-        <v>888</v>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1264,8 +1319,8 @@
       <c r="C11">
         <v>100001</v>
       </c>
-      <c r="D11">
-        <v>999</v>
+      <c r="D11" t="s">
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1285,7 +1340,7 @@
         <v>100002</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1305,7 +1360,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1322,6 +1377,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="3" width="21.8916666666667" customWidth="1"/>
+    <col min="4" max="7" width="25.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>100003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>100003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
